--- a/excel/Machinery_Part/Section3.xlsx
+++ b/excel/Machinery_Part/Section3.xlsx
@@ -9103,7 +9103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX10"/>
+  <dimension ref="A1:CX11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11675,287 +11675,288 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>oil from the pipes of branched main engine lub.</t>
+          <t>I-beam with two (2) sets of trolleys
+△2.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
@@ -11965,230 +11966,229 @@
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CM6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CN6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CO6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CP6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CQ6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CR6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CS6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CT6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CU6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CV6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CW6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CX6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>oil 
-line.</t>
+          <t>oil from the pipes of branched main engine lub.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -12203,7 +12203,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -12253,7 +12253,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -12408,7 +12408,7 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -12513,7 +12513,7 @@
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
@@ -12700,8 +12700,8 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>oil shall flow into the bearing clearance from the side of shaft center line through the 
-clearance between housing bore and outside of bearing metal and lubricate the bearing.</t>
+          <t>oil 
+line.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -13213,8 +13213,8 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>oil shall drain off through the both end of bearing metal and flow to the returning 
-main engine lub.</t>
+          <t>oil shall flow into the bearing clearance from the side of shaft center line through the 
+clearance between housing bore and outside of bearing metal and lubricate the bearing.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -13229,7 +13229,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -13279,7 +13279,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -13434,7 +13434,7 @@
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -13539,7 +13539,7 @@
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
@@ -13727,510 +13727,1023 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>oil shall drain off through the both end of bearing metal and flow to the returning 
+main engine lub.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>(+)M/E &amp; (-)main &amp; (-)engine</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CN10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CO10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CP10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CQ10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CR10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CT10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CU10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>oil shall drain off through the both end of bearing metal and flow to the returning 
 M/E lub.</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AU10" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr">
+      <c r="AV11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AW10" t="inlineStr">
+      <c r="AW11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
+      <c r="AX11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr">
+      <c r="AY11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="AZ10" t="inlineStr">
+      <c r="AZ11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BA10" t="inlineStr">
+      <c r="BA11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr">
+      <c r="BB11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BC10" t="inlineStr">
+      <c r="BC11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BD10" t="inlineStr">
+      <c r="BD11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BE10" t="inlineStr">
+      <c r="BE11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BF10" t="inlineStr">
+      <c r="BF11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BG10" t="inlineStr">
+      <c r="BG11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BH10" t="inlineStr">
+      <c r="BH11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BI10" t="inlineStr">
+      <c r="BI11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BJ10" t="inlineStr">
+      <c r="BJ11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BK10" t="inlineStr">
+      <c r="BK11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BL10" t="inlineStr">
+      <c r="BL11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BM10" t="inlineStr">
+      <c r="BM11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BN10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BO10" t="inlineStr">
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BP10" t="inlineStr">
+      <c r="BP11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BQ10" t="inlineStr">
+      <c r="BQ11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BR10" t="inlineStr">
+      <c r="BR11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BS10" t="inlineStr">
+      <c r="BS11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BT10" t="inlineStr">
+      <c r="BT11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BU10" t="inlineStr">
+      <c r="BU11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BV10" t="inlineStr">
+      <c r="BV11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BW10" t="inlineStr">
+      <c r="BW11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BX10" t="inlineStr">
+      <c r="BX11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BY10" t="inlineStr">
+      <c r="BY11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="BZ10" t="inlineStr">
+      <c r="BZ11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CA10" t="inlineStr">
+      <c r="CA11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CB10" t="inlineStr">
+      <c r="CB11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CC10" t="inlineStr">
+      <c r="CC11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CD10" t="inlineStr">
+      <c r="CD11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CE10" t="inlineStr">
+      <c r="CE11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CF10" t="inlineStr">
+      <c r="CF11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CG10" t="inlineStr">
+      <c r="CG11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CH10" t="inlineStr">
+      <c r="CH11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CI10" t="inlineStr">
+      <c r="CI11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CJ10" t="inlineStr">
+      <c r="CJ11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CK10" t="inlineStr">
+      <c r="CK11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CL10" t="inlineStr">
+      <c r="CL11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CM10" t="inlineStr">
+      <c r="CM11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CN10" t="inlineStr">
+      <c r="CN11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CO10" t="inlineStr">
+      <c r="CO11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CP10" t="inlineStr">
+      <c r="CP11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CQ10" t="inlineStr">
+      <c r="CQ11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CR10" t="inlineStr">
+      <c r="CR11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CS10" t="inlineStr">
+      <c r="CS11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CT10" t="inlineStr">
+      <c r="CT11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CU10" t="inlineStr">
+      <c r="CU11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CV10" t="inlineStr">
+      <c r="CV11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CW10" t="inlineStr">
+      <c r="CW11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
       </c>
-      <c r="CX10" t="inlineStr">
+      <c r="CX11" t="inlineStr">
         <is>
           <t>(+)main &amp; (+)engine &amp; (-)M/E</t>
         </is>
@@ -26601,337 +27114,337 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>(+)6,425△1 &amp; (-), &amp; (-)net &amp; (-)stopper &amp; (-).</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(+)min-1 &amp; (-), &amp; (-)net &amp; (-)stopper &amp; (-).</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>(+)P-21 &amp; (-), &amp; (-)net &amp; (-)stopper &amp; (-).</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>(+)M3 &amp; (+)- &amp; (+)3e &amp; (-), &amp; (-)net &amp; (-)stopper &amp; (-).</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>(+)stopper△1 &amp; (-)stopper &amp; (-).</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>(+)stopper△1 &amp; (-)stopper &amp; (-).</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>(+)air &amp; (+)seal &amp; (+)type &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>(+)stopper△1 &amp; (-), &amp; (-)stopper &amp; (-).</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>(+)6,425 &amp; (+)kW &amp; (+)2△ &amp; (-), &amp; (-)net &amp; (-)stopper &amp; (-).</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>(+)M3 &amp; (+)- &amp; (+)3e &amp; (-), &amp; (-)net &amp; (-)stopper &amp; (-).</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
         <is>
           <t>(+)min-1 &amp; (-), &amp; (-)net &amp; (-)stopper &amp; (-).</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="AZ15" t="inlineStr">
         <is>
           <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="BA15" t="inlineStr">
         <is>
           <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>(+)P-21 &amp; (-), &amp; (-)net &amp; (-)stopper &amp; (-).</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="BB15" t="inlineStr">
         <is>
           <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="BC15" t="inlineStr">
         <is>
           <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>(+)distance &amp; (+)piece &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
         <is>
           <t>(+)M3 &amp; (+)- &amp; (+)3e &amp; (-), &amp; (-)net &amp; (-)stopper &amp; (-).</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="BO15" t="inlineStr">
         <is>
           <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="BP15" t="inlineStr">
         <is>
           <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="BQ15" t="inlineStr">
         <is>
           <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="BR15" t="inlineStr">
         <is>
           <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>(+)air &amp; (+)seal &amp; (+)type &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AS15" t="inlineStr">
-        <is>
-          <t>(+)M3 &amp; (+)- &amp; (+)3e &amp; (-), &amp; (-)net &amp; (-)stopper &amp; (-).</t>
-        </is>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AV15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AW15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AX15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>(+)min-1 &amp; (-), &amp; (-)net &amp; (-)stopper &amp; (-).</t>
-        </is>
-      </c>
-      <c r="AZ15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BA15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BB15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BC15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BD15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BE15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BG15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>(+)distance &amp; (+)piece &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BI15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BK15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BL15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BM15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BN15" t="inlineStr">
-        <is>
-          <t>(+)M3 &amp; (+)- &amp; (+)3e &amp; (-), &amp; (-)net &amp; (-)stopper &amp; (-).</t>
-        </is>
-      </c>
-      <c r="BO15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BP15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BQ15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
-      <c r="BR15" t="inlineStr">
-        <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
-        </is>
-      </c>
       <c r="BS15" t="inlineStr">
         <is>
-          <t>(+)3.5 &amp; (+)PROPELLER &amp; (-), &amp; (-)net &amp; (-)stopper</t>
+          <t>(+)stopper△1 &amp; (-)stopper &amp; (-).</t>
         </is>
       </c>
       <c r="BT15" t="inlineStr">
